--- a/static/xls/printer.xlsx
+++ b/static/xls/printer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13590" windowHeight="12780"/>
+    <workbookView windowWidth="28800" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="修订版" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>P30</t>
     </r>
     <r>
@@ -33,6 +39,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>型号：</t>
     </r>
     <r>
@@ -402,6 +414,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>型号：</t>
     </r>
     <r>
@@ -716,6 +734,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>型号：</t>
     </r>
     <r>
@@ -1085,6 +1109,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>型号：</t>
     </r>
     <r>
@@ -1399,6 +1429,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>型号：</t>
     </r>
     <r>
@@ -1974,26 +2010,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">）快速打印；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）可选配手动切刀。</t>
+      <t>）快速打印；</t>
     </r>
   </si>
   <si>
@@ -2047,6 +2064,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>型号：</t>
     </r>
     <r>
@@ -2389,6 +2412,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>型号：</t>
     </r>
     <r>
@@ -2569,12 +2598,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2606,38 +2635,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2650,16 +2650,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2680,18 +2687,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2719,21 +2747,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2750,6 +2763,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2757,10 +2771,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2778,37 +2801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2827,12 +2832,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2886,6 +2885,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2893,6 +2922,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2917,24 +2958,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3002,11 +3025,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3026,17 +3055,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3087,148 +3110,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3601,8 +3624,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3675,7 +3698,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="141.75" spans="1:5">
+    <row r="6" ht="127.5" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>

--- a/static/xls/printer.xlsx
+++ b/static/xls/printer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13140"/>
+    <workbookView windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="修订版" sheetId="4" r:id="rId1"/>
@@ -1785,26 +1785,26 @@
   </si>
   <si>
     <r>
+      <t>P70</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>268</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（台式打印机）</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（便携式打印机）</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>型号：</t>
     </r>
     <r>
@@ -1814,7 +1814,7 @@
         <rFont val="Tahoma"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">268A/368A
+      <t xml:space="preserve">P70
 </t>
     </r>
     <r>
@@ -1972,6 +1972,348 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">特点：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）需要安装驱动；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）配备电动切刀。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OLED</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">显示屏，可视化操作；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）可选配</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RFID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台式打印机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（桌面式打印机）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型号：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">268A/368A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印方式：热转印</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效打印宽度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>108mm (4.25</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>″</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RS-232 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串口，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>USB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">100/10M-bit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以太网口（选配），并口（选配）
+输入电源：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24VDC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源适配器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>特点：</t>
     </r>
     <r>
@@ -2031,354 +2373,6 @@
         <charset val="134"/>
       </rPr>
       <t>台式打印机系列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（台式打印机）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型号：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P70
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印方式：热转印</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效打印宽度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>108mm (4.25</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>″</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">RS-232 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串口，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>USB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">100/10M-bit </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以太网口（选配），并口（选配）
-输入电源：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24VDC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电源适配器</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">特点：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）需要安装驱动；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）配备电动切刀。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英寸</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OLED</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">显示屏，可视化操作；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）可选配</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RFID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台式打印机</t>
     </r>
     <r>
       <rPr>
@@ -2598,8 +2592,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2635,9 +2629,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2650,25 +2658,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2680,7 +2681,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2709,29 +2710,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2742,6 +2720,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2765,7 +2758,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2773,14 +2766,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2801,37 +2795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2849,25 +2819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2879,7 +2831,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2891,73 +2891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2975,13 +2909,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3010,32 +3004,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3057,24 +3054,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3088,170 +3072,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3624,8 +3618,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3698,8 +3692,8 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="127.5" spans="1:5">
-      <c r="A6" s="8" t="s">
+    <row r="6" ht="155.25" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3710,8 +3704,8 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="155.25" spans="1:5">
-      <c r="A7" s="8" t="s">
+    <row r="7" ht="127.5" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3720,7 +3714,6 @@
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" ht="114" spans="1:5">

--- a/static/xls/printer.xlsx
+++ b/static/xls/printer.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\wewin\开发\打印机标签问题筛选展示\wewin-tag-question\static\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="修订版" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>P30</t>
     </r>
@@ -52,7 +57,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">P30
 </t>
@@ -71,7 +76,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -90,7 +95,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>24mm</t>
     </r>
@@ -108,7 +113,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1inch/s</t>
     </r>
@@ -126,7 +131,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -145,7 +150,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>USB 2.0</t>
     </r>
@@ -163,7 +168,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NFC</t>
     </r>
@@ -181,7 +186,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>WIFI(</t>
     </r>
@@ -200,7 +205,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>9V</t>
     </r>
@@ -218,7 +223,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -238,7 +243,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -256,7 +261,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>670g</t>
     </r>
@@ -275,7 +280,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -293,7 +298,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1.3</t>
     </r>
@@ -311,7 +316,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>OLED</t>
     </r>
@@ -330,7 +335,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -349,7 +354,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -369,7 +374,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>P30</t>
     </r>
@@ -387,7 +392,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.jpg</t>
     </r>
@@ -398,7 +403,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>C10</t>
     </r>
@@ -427,7 +432,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">C10
 </t>
@@ -446,7 +451,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -465,7 +470,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>24mm</t>
     </r>
@@ -483,7 +488,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1inch/s</t>
     </r>
@@ -501,7 +506,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -520,7 +525,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>USB 2.0</t>
     </r>
@@ -538,7 +543,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NFC</t>
     </r>
@@ -556,7 +561,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>WIFI(</t>
     </r>
@@ -575,7 +580,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>9V</t>
     </r>
@@ -593,7 +598,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -612,7 +617,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 1</t>
@@ -631,7 +636,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>720g</t>
     </r>
@@ -650,7 +655,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -669,7 +674,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -689,7 +694,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>C10</t>
     </r>
@@ -707,7 +712,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.png</t>
     </r>
@@ -718,7 +723,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>P50</t>
     </r>
@@ -747,7 +752,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">P50
 </t>
@@ -766,7 +771,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -785,7 +790,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>48mm</t>
     </r>
@@ -803,7 +808,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1inch/s</t>
     </r>
@@ -821,7 +826,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -840,7 +845,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>USB 2.0</t>
     </r>
@@ -858,7 +863,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NFC</t>
     </r>
@@ -876,7 +881,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>WIFI(</t>
     </r>
@@ -895,7 +900,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>9V</t>
     </r>
@@ -913,7 +918,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -932,7 +937,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 1</t>
@@ -951,7 +956,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>970g</t>
     </r>
@@ -970,7 +975,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -988,7 +993,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1.3</t>
     </r>
@@ -1006,7 +1011,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>OLED</t>
     </r>
@@ -1025,7 +1030,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1044,7 +1049,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1064,7 +1069,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>P50</t>
     </r>
@@ -1082,7 +1087,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.jpg</t>
     </r>
@@ -1093,7 +1098,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>C20</t>
     </r>
@@ -1122,7 +1127,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">C20
 </t>
@@ -1141,7 +1146,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1160,7 +1165,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>48mm</t>
     </r>
@@ -1178,7 +1183,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1inch/s</t>
     </r>
@@ -1196,7 +1201,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1215,7 +1220,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>USB 2.0</t>
     </r>
@@ -1233,7 +1238,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>NFC</t>
     </r>
@@ -1251,7 +1256,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>WIFI(</t>
     </r>
@@ -1270,7 +1275,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>9V</t>
     </r>
@@ -1288,7 +1293,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1308,7 +1313,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1326,7 +1331,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>980g</t>
     </r>
@@ -1345,7 +1350,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1364,7 +1369,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1384,7 +1389,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>C20</t>
     </r>
@@ -1402,7 +1407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.png</t>
     </r>
@@ -1413,7 +1418,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>H50</t>
     </r>
@@ -1430,6 +1435,49 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>H50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（便携式打印机）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
@@ -1442,7 +1490,850 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">P70
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印方式：热转印</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效打印宽度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>108mm (4.25</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>″</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RS-232 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串口，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>USB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">100/10M-bit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以太网口（选配），并口（选配）
+输入电源：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>24VDC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源适配器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">特点：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）需要安装驱动；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）配备电动切刀。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>OLED</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">显示屏，可视化操作；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）可选配</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>P70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台式打印机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（桌面式打印机）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型号：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">268A/368A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印方式：热转印</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效打印宽度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>108mm (4.25</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>″</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RS-232 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串口，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>USB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">100/10M-bit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以太网口（选配），并口（选配）
+输入电源：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>24VDC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源适配器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特点：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）需要安装驱动；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）快速打印；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台式打印机系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>CS-200e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（证卡打印机）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型号：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CS-200e
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打印方式：热转印</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效打印宽度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">86mm*54mm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>USB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口
+输入电源：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>24V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源适配器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特点：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）需要安装驱动；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）带显示屏，可视化操作</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证卡打印机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CP50CR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子标签打印机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CP50CR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>RFID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子标签打印机）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>型号：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">H50
 </t>
@@ -1461,7 +2352,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1480,7 +2371,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>48mm</t>
     </r>
@@ -1498,7 +2389,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1inch/s</t>
     </r>
@@ -1516,7 +2407,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1535,7 +2426,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>USB 2.0</t>
     </r>
@@ -1553,7 +2444,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4G</t>
     </r>
@@ -1572,7 +2463,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>9V</t>
     </r>
@@ -1590,7 +2481,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1609,7 +2500,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 1</t>
@@ -1629,7 +2520,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1648,7 +2539,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1666,7 +2557,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Android OS 4.4</t>
     </r>
@@ -1685,7 +2576,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1703,7 +2594,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1722,7 +2613,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1740,7 +2631,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>4G</t>
     </r>
@@ -1753,56 +2644,15 @@
       </rPr>
       <t>网随时可操作，无需连接手机。</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（便携式打印机）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>型号：</t>
@@ -1812,16 +2662,27 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P70
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>CP50CR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>打印方式：热转印</t>
@@ -1831,6 +2692,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -1841,6 +2703,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有效打印宽度：</t>
@@ -1850,34 +2713,27 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>108mm (4.25</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>″</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>57mm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接口：</t>
@@ -1887,24 +2743,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">RS-232 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串口，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>USB</t>
@@ -1914,27 +2753,70 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">100/10M-bit </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以太网口（选配），并口（选配）
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝牙</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/wifi(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选配</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 输入电源：</t>
     </r>
     <r>
@@ -1942,15 +2824,17 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24VDC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电源适配器</t>
@@ -1960,6 +2844,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -1970,6 +2855,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">特点：
@@ -1980,6 +2866,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Tahoma"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1989,16 +2876,58 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）需要安装驱动；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）连接方式多样化：有线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">可对接资管等
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -2008,16 +2937,18 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）配备电动切刀。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）碳带一体化，安装简单便捷
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -2027,52 +2958,38 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英寸</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OLED</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">显示屏，可视化操作；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）智能打印：支持</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RFID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">模块打印
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -2082,522 +2999,72 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）可选配</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RFID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台式打印机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>268</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（桌面式打印机）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型号：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">268A/368A
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印方式：热转印</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效打印宽度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>108mm (4.25</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>″</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">RS-232 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串口，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>USB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">100/10M-bit </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以太网口（选配），并口（选配）
-输入电源：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24VDC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电源适配器</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特点：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）需要安装驱动；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）快速打印；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>268</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台式打印机系列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CS-200e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（证卡打印机）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型号：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">CS-200e
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印方式：热转印</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有效打印宽度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">86mm*54mm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>USB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口
-输入电源：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>24V</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电源适配器</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特点：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）需要安装驱动；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）带显示屏，可视化操作</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证卡打印机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）耗材多样化：可适应最宽</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90mm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">卡片，挂牌、标牌均可打印
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）带显示屏，可视化操作
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2607,7 +3074,7 @@
     <font>
       <sz val="11"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2626,361 +3093,77 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Tahoma"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3003,253 +3186,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3270,62 +3211,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3610,28 +3516,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="141.75" spans="1:5">
+    <row r="1" spans="1:5" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3644,7 +3550,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" ht="128.25" spans="1:5">
+    <row r="2" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3656,7 +3562,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="142.5" spans="1:5">
+    <row r="3" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -3668,7 +3574,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="127.5" spans="1:5">
+    <row r="4" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3680,119 +3586,119 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="156.75" spans="1:5">
+    <row r="5" spans="1:5" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="155.25" spans="1:5">
+    <row r="6" spans="1:5" ht="155.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="127.5" spans="1:5">
+    <row r="7" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="114" spans="1:5">
+    <row r="8" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
+    <row r="9" spans="1:5" ht="183.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>